--- a/datasets/test.xlsx
+++ b/datasets/test.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,7 +401,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -409,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -433,7 +433,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -457,7 +457,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -465,7 +465,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
